--- a/wpsusage/wpsusage/bin/Debug/Sample.xlsx
+++ b/wpsusage/wpsusage/bin/Debug/Sample.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1" sheetId="1" r:id="R534a6405ed8641c8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table1" sheetId="1" r:id="R9ff03f1f99b54f36"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -156,7 +156,7 @@
         <x:v>花园村</x:v>
       </x:c>
       <x:c r="C2" t="str">
-        <x:v>花园村八组</x:v>
+        <x:v>花园村九组</x:v>
       </x:c>
       <x:c r="D2" t="n">
         <x:v>0</x:v>
@@ -165,7 +165,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2" t="n">
-        <x:v>2343</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G2" t="n">
         <x:v>0</x:v>
@@ -204,7 +204,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S2" t="n">
-        <x:v>158</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T2" t="n">
         <x:v>0</x:v>
@@ -234,7 +234,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC2" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="AD2" t="n">
         <x:v>0</x:v>
@@ -249,7 +249,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH2" t="n">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI2" t="n">
         <x:v>0</x:v>
@@ -287,7 +287,7 @@
         <x:v>花园村</x:v>
       </x:c>
       <x:c r="C3" t="str">
-        <x:v>花园村九组</x:v>
+        <x:v>花园村十一组</x:v>
       </x:c>
       <x:c r="D3" t="n">
         <x:v>0</x:v>
@@ -296,7 +296,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F3" t="n">
-        <x:v>11153</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="G3" t="n">
         <x:v>0</x:v>
@@ -365,7 +365,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC3" t="n">
-        <x:v>289</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD3" t="n">
         <x:v>0</x:v>
@@ -380,7 +380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH3" t="n">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AI3" t="n">
         <x:v>0</x:v>
@@ -418,7 +418,7 @@
         <x:v>花园村</x:v>
       </x:c>
       <x:c r="C4" t="str">
-        <x:v>花园村十组</x:v>
+        <x:v>花园村十二组</x:v>
       </x:c>
       <x:c r="D4" t="n">
         <x:v>0</x:v>
@@ -427,7 +427,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F4" t="n">
-        <x:v>7587</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G4" t="n">
         <x:v>0</x:v>
@@ -496,7 +496,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC4" t="n">
-        <x:v>30</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD4" t="n">
         <x:v>0</x:v>
@@ -532,7 +532,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO4" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="AP4" t="n">
         <x:v>0</x:v>
@@ -549,7 +549,7 @@
         <x:v>花园村</x:v>
       </x:c>
       <x:c r="C5" t="str">
-        <x:v>花园村十一组</x:v>
+        <x:v>花园村十三组</x:v>
       </x:c>
       <x:c r="D5" t="n">
         <x:v>0</x:v>
@@ -558,7 +558,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F5" t="n">
-        <x:v>4064</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="G5" t="n">
         <x:v>0</x:v>
@@ -567,7 +567,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I5" t="n">
-        <x:v>2917</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J5" t="n">
         <x:v>0</x:v>
@@ -642,7 +642,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH5" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="AI5" t="n">
         <x:v>0</x:v>
@@ -680,16 +680,16 @@
         <x:v>花园村</x:v>
       </x:c>
       <x:c r="C6" t="str">
-        <x:v>花园村十二组</x:v>
+        <x:v>村集体</x:v>
       </x:c>
       <x:c r="D6" t="n">
-        <x:v>0</x:v>
+        <x:v>5299</x:v>
       </x:c>
       <x:c r="E6" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F6" t="n">
-        <x:v>14990</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G6" t="n">
         <x:v>0</x:v>
@@ -716,7 +716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O6" t="n">
-        <x:v>0</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="P6" t="n">
         <x:v>0</x:v>
@@ -728,7 +728,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S6" t="n">
-        <x:v>106</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="T6" t="n">
         <x:v>0</x:v>
@@ -740,7 +740,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W6" t="n">
-        <x:v>0</x:v>
+        <x:v>1376</x:v>
       </x:c>
       <x:c r="X6" t="n">
         <x:v>0</x:v>
@@ -749,7 +749,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z6" t="n">
-        <x:v>0</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="AA6" t="n">
         <x:v>0</x:v>
@@ -758,10 +758,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC6" t="n">
-        <x:v>0</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="AD6" t="n">
-        <x:v>0</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="AE6" t="n">
         <x:v>0</x:v>
@@ -773,7 +773,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH6" t="n">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI6" t="n">
         <x:v>0</x:v>
@@ -794,7 +794,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO6" t="n">
-        <x:v>3626</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AP6" t="n">
         <x:v>0</x:v>
@@ -808,10 +808,10 @@
         <x:v>城东街道</x:v>
       </x:c>
       <x:c r="B7" t="str">
-        <x:v>花园村</x:v>
+        <x:v>丁冯村</x:v>
       </x:c>
       <x:c r="C7" t="str">
-        <x:v>花园村十三组</x:v>
+        <x:v>丁冯村二组</x:v>
       </x:c>
       <x:c r="D7" t="n">
         <x:v>0</x:v>
@@ -820,7 +820,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F7" t="n">
-        <x:v>2948</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G7" t="n">
         <x:v>0</x:v>
@@ -889,7 +889,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC7" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD7" t="n">
         <x:v>0</x:v>
@@ -904,7 +904,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH7" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI7" t="n">
         <x:v>0</x:v>
@@ -925,7 +925,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO7" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="AP7" t="n">
         <x:v>0</x:v>
@@ -939,19 +939,19 @@
         <x:v>城东街道</x:v>
       </x:c>
       <x:c r="B8" t="str">
-        <x:v>花园村</x:v>
+        <x:v>丁冯村</x:v>
       </x:c>
       <x:c r="C8" t="str">
-        <x:v>村集体</x:v>
+        <x:v>丁冯村六组</x:v>
       </x:c>
       <x:c r="D8" t="n">
-        <x:v>16861</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E8" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" t="n">
-        <x:v>0</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G8" t="n">
         <x:v>0</x:v>
@@ -978,7 +978,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O8" t="n">
-        <x:v>357</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P8" t="n">
         <x:v>0</x:v>
@@ -990,7 +990,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S8" t="n">
-        <x:v>809</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T8" t="n">
         <x:v>0</x:v>
@@ -1002,7 +1002,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W8" t="n">
-        <x:v>8443</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X8" t="n">
         <x:v>0</x:v>
@@ -1017,13 +1017,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AB8" t="n">
-        <x:v>169</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AC8" t="n">
-        <x:v>657</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD8" t="n">
-        <x:v>721</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AE8" t="n">
         <x:v>0</x:v>
@@ -1070,10 +1070,10 @@
         <x:v>城东街道</x:v>
       </x:c>
       <x:c r="B9" t="str">
-        <x:v>花园村</x:v>
+        <x:v>丁冯村</x:v>
       </x:c>
       <x:c r="C9" t="str">
-        <x:v>国有</x:v>
+        <x:v>丁冯村七组</x:v>
       </x:c>
       <x:c r="D9" t="n">
         <x:v>0</x:v>
@@ -1082,7 +1082,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F9" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G9" t="n">
         <x:v>0</x:v>
@@ -1091,7 +1091,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I9" t="n">
-        <x:v>2815</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J9" t="n">
         <x:v>0</x:v>
@@ -1133,7 +1133,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W9" t="n">
-        <x:v>7182</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X9" t="n">
         <x:v>0</x:v>
@@ -1154,7 +1154,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AD9" t="n">
-        <x:v>1317</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AE9" t="n">
         <x:v>0</x:v>
@@ -1166,7 +1166,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH9" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="AI9" t="n">
         <x:v>0</x:v>
@@ -1204,7 +1204,7 @@
         <x:v>丁冯村</x:v>
       </x:c>
       <x:c r="C10" t="str">
-        <x:v>丁冯村五组</x:v>
+        <x:v>丁冯村十组</x:v>
       </x:c>
       <x:c r="D10" t="n">
         <x:v>0</x:v>
@@ -1213,7 +1213,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F10" t="n">
-        <x:v>5463</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="G10" t="n">
         <x:v>0</x:v>
@@ -1297,7 +1297,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH10" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI10" t="n">
         <x:v>0</x:v>
@@ -1318,7 +1318,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO10" t="n">
-        <x:v>0</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="AP10" t="n">
         <x:v>0</x:v>
@@ -1335,7 +1335,7 @@
         <x:v>丁冯村</x:v>
       </x:c>
       <x:c r="C11" t="str">
-        <x:v>丁冯村六组</x:v>
+        <x:v>丁冯村十一组</x:v>
       </x:c>
       <x:c r="D11" t="n">
         <x:v>0</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F11" t="n">
-        <x:v>9382</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G11" t="n">
         <x:v>0</x:v>
@@ -1383,7 +1383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S11" t="n">
-        <x:v>104</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="T11" t="n">
         <x:v>0</x:v>
@@ -1428,7 +1428,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH11" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI11" t="n">
         <x:v>0</x:v>
@@ -1449,7 +1449,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO11" t="n">
-        <x:v>115</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="AP11" t="n">
         <x:v>0</x:v>
@@ -1466,7 +1466,7 @@
         <x:v>丁冯村</x:v>
       </x:c>
       <x:c r="C12" t="str">
-        <x:v>丁冯村七组</x:v>
+        <x:v>丁冯村十二组</x:v>
       </x:c>
       <x:c r="D12" t="n">
         <x:v>0</x:v>
@@ -1475,10 +1475,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F12" t="n">
-        <x:v>16952</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G12" t="n">
-        <x:v>493</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H12" t="n">
         <x:v>0</x:v>
@@ -1514,7 +1514,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S12" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T12" t="n">
         <x:v>0</x:v>
@@ -1559,7 +1559,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH12" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI12" t="n">
         <x:v>0</x:v>
@@ -1597,7 +1597,7 @@
         <x:v>丁冯村</x:v>
       </x:c>
       <x:c r="C13" t="str">
-        <x:v>丁冯村十组</x:v>
+        <x:v>丁冯村十三组</x:v>
       </x:c>
       <x:c r="D13" t="n">
         <x:v>0</x:v>
@@ -1606,7 +1606,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F13" t="n">
-        <x:v>6265</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="G13" t="n">
         <x:v>0</x:v>
@@ -1615,7 +1615,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I13" t="n">
-        <x:v>0</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="J13" t="n">
         <x:v>0</x:v>
@@ -1645,7 +1645,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S13" t="n">
-        <x:v>30</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T13" t="n">
         <x:v>0</x:v>
@@ -1690,7 +1690,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH13" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI13" t="n">
         <x:v>0</x:v>
@@ -1711,7 +1711,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO13" t="n">
-        <x:v>1828</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AP13" t="n">
         <x:v>0</x:v>
@@ -1728,7 +1728,7 @@
         <x:v>丁冯村</x:v>
       </x:c>
       <x:c r="C14" t="str">
-        <x:v>丁冯村十一组</x:v>
+        <x:v>丁冯村十四组</x:v>
       </x:c>
       <x:c r="D14" t="n">
         <x:v>0</x:v>
@@ -1737,7 +1737,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F14" t="n">
-        <x:v>2785</x:v>
+        <x:v>5380</x:v>
       </x:c>
       <x:c r="G14" t="n">
         <x:v>0</x:v>
@@ -1746,7 +1746,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I14" t="n">
-        <x:v>0</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="J14" t="n">
         <x:v>0</x:v>
@@ -1764,7 +1764,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O14" t="n">
-        <x:v>0</x:v>
+        <x:v>1157</x:v>
       </x:c>
       <x:c r="P14" t="n">
         <x:v>0</x:v>
@@ -1776,7 +1776,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S14" t="n">
-        <x:v>238</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="T14" t="n">
         <x:v>0</x:v>
@@ -1797,7 +1797,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z14" t="n">
-        <x:v>0</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="AA14" t="n">
         <x:v>0</x:v>
@@ -1821,7 +1821,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH14" t="n">
-        <x:v>30</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="AI14" t="n">
         <x:v>0</x:v>
@@ -1842,7 +1842,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO14" t="n">
-        <x:v>426</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AP14" t="n">
         <x:v>0</x:v>
@@ -1859,16 +1859,16 @@
         <x:v>丁冯村</x:v>
       </x:c>
       <x:c r="C15" t="str">
-        <x:v>丁冯村十二组</x:v>
+        <x:v>丁冯村村集体</x:v>
       </x:c>
       <x:c r="D15" t="n">
-        <x:v>0</x:v>
+        <x:v>4154</x:v>
       </x:c>
       <x:c r="E15" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F15" t="n">
-        <x:v>6225</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G15" t="n">
         <x:v>0</x:v>
@@ -1895,7 +1895,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O15" t="n">
-        <x:v>0</x:v>
+        <x:v>1587</x:v>
       </x:c>
       <x:c r="P15" t="n">
         <x:v>0</x:v>
@@ -1907,7 +1907,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S15" t="n">
-        <x:v>113</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="T15" t="n">
         <x:v>0</x:v>
@@ -1919,7 +1919,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W15" t="n">
-        <x:v>0</x:v>
+        <x:v>2625</x:v>
       </x:c>
       <x:c r="X15" t="n">
         <x:v>0</x:v>
@@ -1928,16 +1928,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z15" t="n">
-        <x:v>0</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="AA15" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AB15" t="n">
-        <x:v>0</x:v>
+        <x:v>1985</x:v>
       </x:c>
       <x:c r="AC15" t="n">
-        <x:v>13</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="AD15" t="n">
         <x:v>0</x:v>
@@ -1973,7 +1973,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO15" t="n">
-        <x:v>354</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="AP15" t="n">
         <x:v>0</x:v>
@@ -1987,10 +1987,10 @@
         <x:v>城东街道</x:v>
       </x:c>
       <x:c r="B16" t="str">
-        <x:v>丁冯村</x:v>
+        <x:v>渔行村</x:v>
       </x:c>
       <x:c r="C16" t="str">
-        <x:v>丁冯村十三组</x:v>
+        <x:v>渔行村一组</x:v>
       </x:c>
       <x:c r="D16" t="n">
         <x:v>0</x:v>
@@ -1999,7 +1999,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" t="n">
-        <x:v>4566</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G16" t="n">
         <x:v>0</x:v>
@@ -2008,7 +2008,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I16" t="n">
-        <x:v>43</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J16" t="n">
         <x:v>0</x:v>
@@ -2104,7 +2104,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO16" t="n">
-        <x:v>0</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="AP16" t="n">
         <x:v>0</x:v>
@@ -2118,10 +2118,10 @@
         <x:v>城东街道</x:v>
       </x:c>
       <x:c r="B17" t="str">
-        <x:v>丁冯村</x:v>
+        <x:v>渔行村</x:v>
       </x:c>
       <x:c r="C17" t="str">
-        <x:v>丁冯村十四组</x:v>
+        <x:v>渔行村三组</x:v>
       </x:c>
       <x:c r="D17" t="n">
         <x:v>0</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F17" t="n">
-        <x:v>5212</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G17" t="n">
         <x:v>0</x:v>
@@ -2181,7 +2181,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W17" t="n">
-        <x:v>0</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="X17" t="n">
         <x:v>0</x:v>
@@ -2190,7 +2190,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z17" t="n">
-        <x:v>68</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AA17" t="n">
         <x:v>0</x:v>
@@ -2235,7 +2235,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO17" t="n">
-        <x:v>0</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="AP17" t="n">
         <x:v>0</x:v>
@@ -2249,19 +2249,19 @@
         <x:v>城东街道</x:v>
       </x:c>
       <x:c r="B18" t="str">
-        <x:v>丁冯村</x:v>
+        <x:v>渔行村</x:v>
       </x:c>
       <x:c r="C18" t="str">
-        <x:v>丁冯村村集体</x:v>
+        <x:v>渔行村大桥组</x:v>
       </x:c>
       <x:c r="D18" t="n">
-        <x:v>12008</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E18" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F18" t="n">
-        <x:v>155</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G18" t="n">
         <x:v>0</x:v>
@@ -2270,7 +2270,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I18" t="n">
-        <x:v>13152</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J18" t="n">
         <x:v>0</x:v>
@@ -2300,7 +2300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S18" t="n">
-        <x:v>4846</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T18" t="n">
         <x:v>0</x:v>
@@ -2312,7 +2312,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W18" t="n">
-        <x:v>17576</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X18" t="n">
         <x:v>0</x:v>
@@ -2321,7 +2321,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z18" t="n">
-        <x:v>34482</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AA18" t="n">
         <x:v>0</x:v>
@@ -2366,7 +2366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO18" t="n">
-        <x:v>2660</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="AP18" t="n">
         <x:v>0</x:v>
@@ -2380,10 +2380,10 @@
         <x:v>城东街道</x:v>
       </x:c>
       <x:c r="B19" t="str">
-        <x:v>丁冯村</x:v>
+        <x:v>渔行村</x:v>
       </x:c>
       <x:c r="C19" t="str">
-        <x:v>国有</x:v>
+        <x:v>渔行村后庄组</x:v>
       </x:c>
       <x:c r="D19" t="n">
         <x:v>0</x:v>
@@ -2392,7 +2392,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F19" t="n">
-        <x:v>0</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G19" t="n">
         <x:v>0</x:v>
@@ -2443,7 +2443,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W19" t="n">
-        <x:v>88</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X19" t="n">
         <x:v>0</x:v>
@@ -2497,7 +2497,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO19" t="n">
-        <x:v>0</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="AP19" t="n">
         <x:v>0</x:v>
@@ -2514,7 +2514,7 @@
         <x:v>渔行村</x:v>
       </x:c>
       <x:c r="C20" t="str">
-        <x:v>渔行村一组</x:v>
+        <x:v>渔行村前进组</x:v>
       </x:c>
       <x:c r="D20" t="n">
         <x:v>0</x:v>
@@ -2628,7 +2628,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO20" t="n">
-        <x:v>2865</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="AP20" t="n">
         <x:v>0</x:v>
@@ -2645,7 +2645,7 @@
         <x:v>渔行村</x:v>
       </x:c>
       <x:c r="C21" t="str">
-        <x:v>渔行村三组</x:v>
+        <x:v>渔行村前庄组</x:v>
       </x:c>
       <x:c r="D21" t="n">
         <x:v>0</x:v>
@@ -2654,7 +2654,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F21" t="n">
-        <x:v>728</x:v>
+        <x:v>1304</x:v>
       </x:c>
       <x:c r="G21" t="n">
         <x:v>0</x:v>
@@ -2705,7 +2705,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W21" t="n">
-        <x:v>1508</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X21" t="n">
         <x:v>0</x:v>
@@ -2759,7 +2759,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO21" t="n">
-        <x:v>273</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="AP21" t="n">
         <x:v>0</x:v>
@@ -2776,7 +2776,7 @@
         <x:v>渔行村</x:v>
       </x:c>
       <x:c r="C22" t="str">
-        <x:v>渔行村大桥组</x:v>
+        <x:v>渔行村村集体</x:v>
       </x:c>
       <x:c r="D22" t="n">
         <x:v>0</x:v>
@@ -2785,7 +2785,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F22" t="n">
-        <x:v>0</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G22" t="n">
         <x:v>0</x:v>
@@ -2824,7 +2824,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S22" t="n">
-        <x:v>0</x:v>
+        <x:v>2655</x:v>
       </x:c>
       <x:c r="T22" t="n">
         <x:v>0</x:v>
@@ -2836,7 +2836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W22" t="n">
-        <x:v>0</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="X22" t="n">
         <x:v>0</x:v>
@@ -2845,7 +2845,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z22" t="n">
-        <x:v>654</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AA22" t="n">
         <x:v>0</x:v>
@@ -2866,7 +2866,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AG22" t="n">
-        <x:v>0</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="AH22" t="n">
         <x:v>0</x:v>
@@ -2890,7 +2890,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO22" t="n">
-        <x:v>5584</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="AP22" t="n">
         <x:v>0</x:v>
@@ -2907,7 +2907,7 @@
         <x:v>渔行村</x:v>
       </x:c>
       <x:c r="C23" t="str">
-        <x:v>渔行村后庄组</x:v>
+        <x:v>国有</x:v>
       </x:c>
       <x:c r="D23" t="n">
         <x:v>0</x:v>
@@ -2916,7 +2916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F23" t="n">
-        <x:v>21969</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G23" t="n">
         <x:v>0</x:v>
@@ -2943,7 +2943,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O23" t="n">
-        <x:v>0</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P23" t="n">
         <x:v>0</x:v>
@@ -2955,7 +2955,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S23" t="n">
-        <x:v>391</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T23" t="n">
         <x:v>0</x:v>
@@ -2967,7 +2967,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W23" t="n">
-        <x:v>0</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="X23" t="n">
         <x:v>0</x:v>
@@ -2976,7 +2976,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z23" t="n">
-        <x:v>56</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AA23" t="n">
         <x:v>0</x:v>
@@ -2985,7 +2985,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC23" t="n">
-        <x:v>108</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD23" t="n">
         <x:v>0</x:v>
@@ -3018,10 +3018,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN23" t="n">
-        <x:v>0</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="AO23" t="n">
-        <x:v>4120</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="AP23" t="n">
         <x:v>0</x:v>
@@ -3035,10 +3035,10 @@
         <x:v>城东街道</x:v>
       </x:c>
       <x:c r="B24" t="str">
-        <x:v>渔行村</x:v>
+        <x:v>唐甸村</x:v>
       </x:c>
       <x:c r="C24" t="str">
-        <x:v>渔行村前进组</x:v>
+        <x:v>唐甸村五组</x:v>
       </x:c>
       <x:c r="D24" t="n">
         <x:v>0</x:v>
@@ -3047,7 +3047,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F24" t="n">
-        <x:v>200</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G24" t="n">
         <x:v>0</x:v>
@@ -3152,7 +3152,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO24" t="n">
-        <x:v>6511</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AP24" t="n">
         <x:v>0</x:v>
@@ -3166,10 +3166,10 @@
         <x:v>城东街道</x:v>
       </x:c>
       <x:c r="B25" t="str">
-        <x:v>渔行村</x:v>
+        <x:v>唐甸村</x:v>
       </x:c>
       <x:c r="C25" t="str">
-        <x:v>渔行村前庄组</x:v>
+        <x:v>唐甸村村集体</x:v>
       </x:c>
       <x:c r="D25" t="n">
         <x:v>0</x:v>
@@ -3178,7 +3178,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F25" t="n">
-        <x:v>11070</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G25" t="n">
         <x:v>0</x:v>
@@ -3229,7 +3229,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W25" t="n">
-        <x:v>0</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="X25" t="n">
         <x:v>0</x:v>
@@ -3283,24 +3283,24 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO25" t="n">
-        <x:v>1377</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AP25" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AQ25" t="n">
-        <x:v>173</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26" t="str">
-        <x:v>城东街道</x:v>
+        <x:v>城西街道</x:v>
       </x:c>
       <x:c r="B26" t="str">
-        <x:v>渔行村</x:v>
+        <x:v>运河社区</x:v>
       </x:c>
       <x:c r="C26" t="str">
-        <x:v>渔行村沙垛组</x:v>
+        <x:v>国有</x:v>
       </x:c>
       <x:c r="D26" t="n">
         <x:v>0</x:v>
@@ -3309,7 +3309,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F26" t="n">
-        <x:v>0</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G26" t="n">
         <x:v>0</x:v>
@@ -3381,7 +3381,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AD26" t="n">
-        <x:v>0</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="AE26" t="n">
         <x:v>0</x:v>
@@ -3411,10 +3411,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN26" t="n">
-        <x:v>0</x:v>
+        <x:v>3704</x:v>
       </x:c>
       <x:c r="AO26" t="n">
-        <x:v>165</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="AP26" t="n">
         <x:v>0</x:v>
@@ -3425,31 +3425,31 @@
     </x:row>
     <x:row r="27">
       <x:c r="A27" t="str">
-        <x:v>城东街道</x:v>
+        <x:v>城西街道</x:v>
       </x:c>
       <x:c r="B27" t="str">
-        <x:v>渔行村</x:v>
+        <x:v>森北村</x:v>
       </x:c>
       <x:c r="C27" t="str">
-        <x:v>渔行村村集体</x:v>
+        <x:v>村集体</x:v>
       </x:c>
       <x:c r="D27" t="n">
-        <x:v>0</x:v>
+        <x:v>3450</x:v>
       </x:c>
       <x:c r="E27" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F27" t="n">
-        <x:v>1462</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="G27" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H27" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I27" t="n">
-        <x:v>316</x:v>
+        <x:v>1555</x:v>
       </x:c>
       <x:c r="J27" t="n">
         <x:v>0</x:v>
@@ -3473,13 +3473,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q27" t="n">
-        <x:v>0</x:v>
+        <x:v>4504</x:v>
       </x:c>
       <x:c r="R27" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S27" t="n">
-        <x:v>10003</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="T27" t="n">
         <x:v>0</x:v>
@@ -3491,7 +3491,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W27" t="n">
-        <x:v>11869</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="X27" t="n">
         <x:v>0</x:v>
@@ -3500,7 +3500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z27" t="n">
-        <x:v>14751</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AA27" t="n">
         <x:v>0</x:v>
@@ -3509,10 +3509,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC27" t="n">
-        <x:v>349</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="AD27" t="n">
-        <x:v>932</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="AE27" t="n">
         <x:v>0</x:v>
@@ -3521,10 +3521,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AG27" t="n">
-        <x:v>4565</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AH27" t="n">
-        <x:v>0</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="AI27" t="n">
         <x:v>0</x:v>
@@ -3542,10 +3542,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN27" t="n">
-        <x:v>0</x:v>
+        <x:v>1905</x:v>
       </x:c>
       <x:c r="AO27" t="n">
-        <x:v>957</x:v>
+        <x:v>1415</x:v>
       </x:c>
       <x:c r="AP27" t="n">
         <x:v>0</x:v>
@@ -3556,16 +3556,16 @@
     </x:row>
     <x:row r="28">
       <x:c r="A28" t="str">
-        <x:v>城东街道</x:v>
+        <x:v>城西街道</x:v>
       </x:c>
       <x:c r="B28" t="str">
-        <x:v>渔行村</x:v>
+        <x:v>森北村</x:v>
       </x:c>
       <x:c r="C28" t="str">
         <x:v>国有</x:v>
       </x:c>
       <x:c r="D28" t="n">
-        <x:v>0</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="E28" t="n">
         <x:v>0</x:v>
@@ -3598,7 +3598,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O28" t="n">
-        <x:v>10705</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P28" t="n">
         <x:v>0</x:v>
@@ -3622,7 +3622,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W28" t="n">
-        <x:v>3962</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X28" t="n">
         <x:v>0</x:v>
@@ -3673,10 +3673,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN28" t="n">
-        <x:v>9626</x:v>
+        <x:v>1370</x:v>
       </x:c>
       <x:c r="AO28" t="n">
-        <x:v>2258</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AP28" t="n">
         <x:v>0</x:v>
@@ -3687,13 +3687,13 @@
     </x:row>
     <x:row r="29">
       <x:c r="A29" t="str">
-        <x:v>城东街道</x:v>
+        <x:v>京泰路街道</x:v>
       </x:c>
       <x:c r="B29" t="str">
-        <x:v>唐甸村</x:v>
+        <x:v>老东河村</x:v>
       </x:c>
       <x:c r="C29" t="str">
-        <x:v>唐甸村五组</x:v>
+        <x:v>老东河村十三组</x:v>
       </x:c>
       <x:c r="D29" t="n">
         <x:v>0</x:v>
@@ -3702,7 +3702,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F29" t="n">
-        <x:v>4562</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G29" t="n">
         <x:v>0</x:v>
@@ -3741,7 +3741,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S29" t="n">
-        <x:v>0</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="T29" t="n">
         <x:v>0</x:v>
@@ -3762,7 +3762,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z29" t="n">
-        <x:v>0</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="AA29" t="n">
         <x:v>0</x:v>
@@ -3771,7 +3771,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC29" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD29" t="n">
         <x:v>0</x:v>
@@ -3818,13 +3818,13 @@
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="str">
-        <x:v>城东街道</x:v>
+        <x:v>京泰路街道</x:v>
       </x:c>
       <x:c r="B30" t="str">
-        <x:v>唐甸村</x:v>
+        <x:v>老东河村</x:v>
       </x:c>
       <x:c r="C30" t="str">
-        <x:v>唐甸村村集体</x:v>
+        <x:v>老东河村十五组</x:v>
       </x:c>
       <x:c r="D30" t="n">
         <x:v>0</x:v>
@@ -3833,7 +3833,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F30" t="n">
-        <x:v>0</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G30" t="n">
         <x:v>0</x:v>
@@ -3872,7 +3872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S30" t="n">
-        <x:v>0</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="T30" t="n">
         <x:v>0</x:v>
@@ -3884,7 +3884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W30" t="n">
-        <x:v>1884</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X30" t="n">
         <x:v>0</x:v>
@@ -3893,7 +3893,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z30" t="n">
-        <x:v>0</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="AA30" t="n">
         <x:v>0</x:v>
@@ -3949,13 +3949,13 @@
     </x:row>
     <x:row r="31">
       <x:c r="A31" t="str">
-        <x:v>城西街道</x:v>
+        <x:v>京泰路街道</x:v>
       </x:c>
       <x:c r="B31" t="str">
-        <x:v>运河社区</x:v>
+        <x:v>老东河村</x:v>
       </x:c>
       <x:c r="C31" t="str">
-        <x:v>国有</x:v>
+        <x:v>老东河村十四组</x:v>
       </x:c>
       <x:c r="D31" t="n">
         <x:v>0</x:v>
@@ -3964,10 +3964,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F31" t="n">
-        <x:v>4879</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G31" t="n">
-        <x:v>1784</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H31" t="n">
         <x:v>0</x:v>
@@ -4003,7 +4003,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S31" t="n">
-        <x:v>0</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="T31" t="n">
         <x:v>0</x:v>
@@ -4015,7 +4015,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W31" t="n">
-        <x:v>10742</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X31" t="n">
         <x:v>0</x:v>
@@ -4024,7 +4024,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z31" t="n">
-        <x:v>106</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="AA31" t="n">
         <x:v>0</x:v>
@@ -4033,10 +4033,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC31" t="n">
-        <x:v>264</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD31" t="n">
-        <x:v>804</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AE31" t="n">
         <x:v>0</x:v>
@@ -4066,10 +4066,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN31" t="n">
-        <x:v>973</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AO31" t="n">
-        <x:v>4195</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AP31" t="n">
         <x:v>0</x:v>
@@ -4080,22 +4080,22 @@
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="str">
-        <x:v>城西街道</x:v>
+        <x:v>京泰路街道</x:v>
       </x:c>
       <x:c r="B32" t="str">
-        <x:v>森北村</x:v>
+        <x:v>老东河村</x:v>
       </x:c>
       <x:c r="C32" t="str">
-        <x:v>村集体</x:v>
+        <x:v>老东河村十六组</x:v>
       </x:c>
       <x:c r="D32" t="n">
-        <x:v>24842</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E32" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F32" t="n">
-        <x:v>11850</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G32" t="n">
         <x:v>0</x:v>
@@ -4104,7 +4104,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I32" t="n">
-        <x:v>875</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J32" t="n">
         <x:v>0</x:v>
@@ -4128,13 +4128,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q32" t="n">
-        <x:v>14016</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R32" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S32" t="n">
-        <x:v>66</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="T32" t="n">
         <x:v>0</x:v>
@@ -4146,7 +4146,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W32" t="n">
-        <x:v>2661</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X32" t="n">
         <x:v>0</x:v>
@@ -4155,7 +4155,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z32" t="n">
-        <x:v>32</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="AA32" t="n">
         <x:v>0</x:v>
@@ -4164,10 +4164,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC32" t="n">
-        <x:v>220</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD32" t="n">
-        <x:v>1655</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AE32" t="n">
         <x:v>0</x:v>
@@ -4179,7 +4179,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH32" t="n">
-        <x:v>168</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI32" t="n">
         <x:v>0</x:v>
@@ -4197,10 +4197,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN32" t="n">
-        <x:v>5246</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AO32" t="n">
-        <x:v>11612</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AP32" t="n">
         <x:v>0</x:v>
@@ -4211,16 +4211,16 @@
     </x:row>
     <x:row r="33">
       <x:c r="A33" t="str">
-        <x:v>城西街道</x:v>
+        <x:v>京泰路街道</x:v>
       </x:c>
       <x:c r="B33" t="str">
-        <x:v>森北村</x:v>
+        <x:v>老东河村</x:v>
       </x:c>
       <x:c r="C33" t="str">
-        <x:v>国有</x:v>
+        <x:v>老东河村村集体</x:v>
       </x:c>
       <x:c r="D33" t="n">
-        <x:v>4231</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E33" t="n">
         <x:v>0</x:v>
@@ -4328,10 +4328,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN33" t="n">
-        <x:v>533</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AO33" t="n">
-        <x:v>0</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="AP33" t="n">
         <x:v>0</x:v>
@@ -4351,13 +4351,13 @@
         <x:v>东唐村三组</x:v>
       </x:c>
       <x:c r="D34" t="n">
-        <x:v>15730</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="E34" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F34" t="n">
-        <x:v>533</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G34" t="n">
         <x:v>0</x:v>
@@ -4396,7 +4396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S34" t="n">
-        <x:v>628</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="T34" t="n">
         <x:v>0</x:v>
@@ -4426,7 +4426,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC34" t="n">
-        <x:v>420</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AD34" t="n">
         <x:v>0</x:v>
@@ -4482,7 +4482,7 @@
         <x:v>东唐村五组</x:v>
       </x:c>
       <x:c r="D35" t="n">
-        <x:v>4595</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E35" t="n">
         <x:v>0</x:v>
@@ -4527,7 +4527,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S35" t="n">
-        <x:v>123</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T35" t="n">
         <x:v>0</x:v>
@@ -4613,7 +4613,7 @@
         <x:v>东唐村七组</x:v>
       </x:c>
       <x:c r="D36" t="n">
-        <x:v>115</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E36" t="n">
         <x:v>0</x:v>
@@ -4658,7 +4658,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S36" t="n">
-        <x:v>114</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="T36" t="n">
         <x:v>0</x:v>
@@ -4741,7 +4741,7 @@
         <x:v>东塘村</x:v>
       </x:c>
       <x:c r="C37" t="str">
-        <x:v>老东河村十三组、十四组、十五组、十六组共有(飞地)</x:v>
+        <x:v>东唐村十四组</x:v>
       </x:c>
       <x:c r="D37" t="n">
         <x:v>0</x:v>
@@ -4750,7 +4750,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F37" t="n">
-        <x:v>6359</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G37" t="n">
         <x:v>0</x:v>
@@ -4789,7 +4789,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S37" t="n">
-        <x:v>1069</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T37" t="n">
         <x:v>0</x:v>
@@ -4810,7 +4810,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z37" t="n">
-        <x:v>6</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="AA37" t="n">
         <x:v>0</x:v>
@@ -4855,7 +4855,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO37" t="n">
-        <x:v>126</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AP37" t="n">
         <x:v>0</x:v>
@@ -4872,7 +4872,7 @@
         <x:v>东塘村</x:v>
       </x:c>
       <x:c r="C38" t="str">
-        <x:v>东唐村十四组</x:v>
+        <x:v>东唐村十五组</x:v>
       </x:c>
       <x:c r="D38" t="n">
         <x:v>0</x:v>
@@ -4881,7 +4881,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F38" t="n">
-        <x:v>208</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G38" t="n">
         <x:v>0</x:v>
@@ -4920,7 +4920,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S38" t="n">
-        <x:v>53</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T38" t="n">
         <x:v>0</x:v>
@@ -4941,7 +4941,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z38" t="n">
-        <x:v>2239</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="AA38" t="n">
         <x:v>0</x:v>
@@ -5003,7 +5003,7 @@
         <x:v>东塘村</x:v>
       </x:c>
       <x:c r="C39" t="str">
-        <x:v>东唐村十五组</x:v>
+        <x:v>东唐村村集体</x:v>
       </x:c>
       <x:c r="D39" t="n">
         <x:v>0</x:v>
@@ -5012,7 +5012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F39" t="n">
-        <x:v>277</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G39" t="n">
         <x:v>0</x:v>
@@ -5051,7 +5051,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S39" t="n">
-        <x:v>70</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T39" t="n">
         <x:v>0</x:v>
@@ -5063,7 +5063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W39" t="n">
-        <x:v>0</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="X39" t="n">
         <x:v>0</x:v>
@@ -5072,7 +5072,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z39" t="n">
-        <x:v>2987</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AA39" t="n">
         <x:v>0</x:v>
@@ -5131,13 +5131,13 @@
         <x:v>京泰路街道</x:v>
       </x:c>
       <x:c r="B40" t="str">
-        <x:v>东塘村</x:v>
+        <x:v>许郑村</x:v>
       </x:c>
       <x:c r="C40" t="str">
-        <x:v>东唐村村集体</x:v>
+        <x:v>许郑村三组</x:v>
       </x:c>
       <x:c r="D40" t="n">
-        <x:v>0</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="E40" t="n">
         <x:v>0</x:v>
@@ -5182,7 +5182,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S40" t="n">
-        <x:v>514</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T40" t="n">
         <x:v>0</x:v>
@@ -5194,7 +5194,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W40" t="n">
-        <x:v>1777</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X40" t="n">
         <x:v>0</x:v>
@@ -5212,7 +5212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC40" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="AD40" t="n">
         <x:v>0</x:v>
@@ -5265,16 +5265,16 @@
         <x:v>许郑村</x:v>
       </x:c>
       <x:c r="C41" t="str">
-        <x:v>许郑村二组</x:v>
+        <x:v>许郑村六组</x:v>
       </x:c>
       <x:c r="D41" t="n">
-        <x:v>8453</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E41" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F41" t="n">
-        <x:v>423</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G41" t="n">
         <x:v>0</x:v>
@@ -5343,7 +5343,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC41" t="n">
-        <x:v>1209</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AD41" t="n">
         <x:v>0</x:v>
@@ -5358,7 +5358,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH41" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI41" t="n">
         <x:v>0</x:v>
@@ -5396,10 +5396,10 @@
         <x:v>许郑村</x:v>
       </x:c>
       <x:c r="C42" t="str">
-        <x:v>许郑村三组</x:v>
+        <x:v>许郑村村集体</x:v>
       </x:c>
       <x:c r="D42" t="n">
-        <x:v>16021</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E42" t="n">
         <x:v>0</x:v>
@@ -5456,7 +5456,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W42" t="n">
-        <x:v>0</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="X42" t="n">
         <x:v>0</x:v>
@@ -5474,7 +5474,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC42" t="n">
-        <x:v>2163</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD42" t="n">
         <x:v>0</x:v>
@@ -5524,13 +5524,13 @@
         <x:v>京泰路街道</x:v>
       </x:c>
       <x:c r="B43" t="str">
-        <x:v>许郑村</x:v>
+        <x:v>双墩村</x:v>
       </x:c>
       <x:c r="C43" t="str">
-        <x:v>许郑村六组</x:v>
+        <x:v>国有</x:v>
       </x:c>
       <x:c r="D43" t="n">
-        <x:v>1792</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E43" t="n">
         <x:v>0</x:v>
@@ -5605,7 +5605,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC43" t="n">
-        <x:v>262</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD43" t="n">
         <x:v>0</x:v>
@@ -5620,7 +5620,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH43" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI43" t="n">
         <x:v>0</x:v>
@@ -5638,7 +5638,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN43" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="AO43" t="n">
         <x:v>0</x:v>
@@ -5655,13 +5655,13 @@
         <x:v>京泰路街道</x:v>
       </x:c>
       <x:c r="B44" t="str">
-        <x:v>许郑村</x:v>
+        <x:v>周桥村</x:v>
       </x:c>
       <x:c r="C44" t="str">
-        <x:v>许郑村村集体</x:v>
+        <x:v>周桥村九组</x:v>
       </x:c>
       <x:c r="D44" t="n">
-        <x:v>530</x:v>
+        <x:v>1586</x:v>
       </x:c>
       <x:c r="E44" t="n">
         <x:v>0</x:v>
@@ -5676,7 +5676,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I44" t="n">
-        <x:v>0</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="J44" t="n">
         <x:v>0</x:v>
@@ -5718,7 +5718,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W44" t="n">
-        <x:v>1836</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X44" t="n">
         <x:v>0</x:v>
@@ -5736,7 +5736,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC44" t="n">
-        <x:v>807</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="AD44" t="n">
         <x:v>0</x:v>
@@ -5786,13 +5786,13 @@
         <x:v>京泰路街道</x:v>
       </x:c>
       <x:c r="B45" t="str">
-        <x:v>双墩村</x:v>
+        <x:v>周桥村</x:v>
       </x:c>
       <x:c r="C45" t="str">
-        <x:v>双墩村十七组</x:v>
+        <x:v>周桥村十一组</x:v>
       </x:c>
       <x:c r="D45" t="n">
-        <x:v>6932</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E45" t="n">
         <x:v>0</x:v>
@@ -5837,7 +5837,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S45" t="n">
-        <x:v>1662</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="T45" t="n">
         <x:v>0</x:v>
@@ -5858,7 +5858,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z45" t="n">
-        <x:v>3359</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AA45" t="n">
         <x:v>0</x:v>
@@ -5867,7 +5867,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC45" t="n">
-        <x:v>291</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="AD45" t="n">
         <x:v>0</x:v>
@@ -5917,19 +5917,19 @@
         <x:v>京泰路街道</x:v>
       </x:c>
       <x:c r="B46" t="str">
-        <x:v>双墩村</x:v>
+        <x:v>周桥村</x:v>
       </x:c>
       <x:c r="C46" t="str">
-        <x:v>双墩村十八组</x:v>
+        <x:v>周桥村十三组</x:v>
       </x:c>
       <x:c r="D46" t="n">
-        <x:v>22</x:v>
+        <x:v>4041</x:v>
       </x:c>
       <x:c r="E46" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F46" t="n">
-        <x:v>138</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G46" t="n">
         <x:v>0</x:v>
@@ -5938,7 +5938,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I46" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J46" t="n">
         <x:v>0</x:v>
@@ -5998,7 +5998,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC46" t="n">
-        <x:v>655</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="AD46" t="n">
         <x:v>0</x:v>
@@ -6031,7 +6031,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN46" t="n">
-        <x:v>0</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="AO46" t="n">
         <x:v>0</x:v>
@@ -6048,13 +6048,13 @@
         <x:v>京泰路街道</x:v>
       </x:c>
       <x:c r="B47" t="str">
-        <x:v>双墩村</x:v>
+        <x:v>周桥村</x:v>
       </x:c>
       <x:c r="C47" t="str">
-        <x:v>双墩村村集体</x:v>
+        <x:v>周桥村十六组</x:v>
       </x:c>
       <x:c r="D47" t="n">
-        <x:v>0</x:v>
+        <x:v>4399</x:v>
       </x:c>
       <x:c r="E47" t="n">
         <x:v>0</x:v>
@@ -6111,7 +6111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W47" t="n">
-        <x:v>2168</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X47" t="n">
         <x:v>0</x:v>
@@ -6129,10 +6129,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC47" t="n">
-        <x:v>1</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="AD47" t="n">
-        <x:v>943</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AE47" t="n">
         <x:v>0</x:v>
@@ -6162,7 +6162,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN47" t="n">
-        <x:v>4329</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AO47" t="n">
         <x:v>0</x:v>
@@ -6179,10 +6179,10 @@
         <x:v>京泰路街道</x:v>
       </x:c>
       <x:c r="B48" t="str">
-        <x:v>双墩村</x:v>
+        <x:v>周桥村</x:v>
       </x:c>
       <x:c r="C48" t="str">
-        <x:v>国有</x:v>
+        <x:v>周桥村村集体</x:v>
       </x:c>
       <x:c r="D48" t="n">
         <x:v>0</x:v>
@@ -6200,7 +6200,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I48" t="n">
-        <x:v>6665</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J48" t="n">
         <x:v>0</x:v>
@@ -6242,7 +6242,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W48" t="n">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="X48" t="n">
         <x:v>0</x:v>
@@ -6260,10 +6260,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC48" t="n">
-        <x:v>0</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AD48" t="n">
-        <x:v>0</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AE48" t="n">
         <x:v>0</x:v>
@@ -6293,7 +6293,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN48" t="n">
-        <x:v>20300</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AO48" t="n">
         <x:v>0</x:v>
@@ -6313,7 +6313,7 @@
         <x:v>周桥村</x:v>
       </x:c>
       <x:c r="C49" t="str">
-        <x:v>周桥村七组</x:v>
+        <x:v>国有</x:v>
       </x:c>
       <x:c r="D49" t="n">
         <x:v>0</x:v>
@@ -6331,7 +6331,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I49" t="n">
-        <x:v>118</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J49" t="n">
         <x:v>0</x:v>
@@ -6424,7 +6424,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN49" t="n">
-        <x:v>0</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="AO49" t="n">
         <x:v>0</x:v>
@@ -6438,16 +6438,16 @@
     </x:row>
     <x:row r="50">
       <x:c r="A50" t="str">
-        <x:v>京泰路街道</x:v>
+        <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B50" t="str">
-        <x:v>周桥村</x:v>
+        <x:v>东石羊村</x:v>
       </x:c>
       <x:c r="C50" t="str">
-        <x:v>周桥村九组</x:v>
+        <x:v>一组</x:v>
       </x:c>
       <x:c r="D50" t="n">
-        <x:v>6933</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E50" t="n">
         <x:v>0</x:v>
@@ -6462,7 +6462,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I50" t="n">
-        <x:v>4405</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J50" t="n">
         <x:v>0</x:v>
@@ -6522,7 +6522,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC50" t="n">
-        <x:v>0</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="AD50" t="n">
         <x:v>0</x:v>
@@ -6537,7 +6537,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH50" t="n">
-        <x:v>0</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="AI50" t="n">
         <x:v>0</x:v>
@@ -6569,16 +6569,16 @@
     </x:row>
     <x:row r="51">
       <x:c r="A51" t="str">
-        <x:v>京泰路街道</x:v>
+        <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B51" t="str">
-        <x:v>周桥村</x:v>
+        <x:v>东石羊村</x:v>
       </x:c>
       <x:c r="C51" t="str">
-        <x:v>周桥村十三组</x:v>
+        <x:v>二组</x:v>
       </x:c>
       <x:c r="D51" t="n">
-        <x:v>6591</x:v>
+        <x:v>2526</x:v>
       </x:c>
       <x:c r="E51" t="n">
         <x:v>0</x:v>
@@ -6653,7 +6653,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC51" t="n">
-        <x:v>2066</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD51" t="n">
         <x:v>0</x:v>
@@ -6700,16 +6700,16 @@
     </x:row>
     <x:row r="52">
       <x:c r="A52" t="str">
-        <x:v>京泰路街道</x:v>
+        <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B52" t="str">
-        <x:v>周桥村</x:v>
+        <x:v>东石羊村</x:v>
       </x:c>
       <x:c r="C52" t="str">
-        <x:v>周桥村十六组</x:v>
+        <x:v>三组</x:v>
       </x:c>
       <x:c r="D52" t="n">
-        <x:v>6628</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="E52" t="n">
         <x:v>0</x:v>
@@ -6784,7 +6784,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC52" t="n">
-        <x:v>1226</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="AD52" t="n">
         <x:v>0</x:v>
@@ -6831,16 +6831,16 @@
     </x:row>
     <x:row r="53">
       <x:c r="A53" t="str">
-        <x:v>京泰路街道</x:v>
+        <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B53" t="str">
-        <x:v>周桥村</x:v>
+        <x:v>东石羊村</x:v>
       </x:c>
       <x:c r="C53" t="str">
-        <x:v>周桥村十七组</x:v>
+        <x:v>十一组</x:v>
       </x:c>
       <x:c r="D53" t="n">
-        <x:v>3705</x:v>
+        <x:v>1074</x:v>
       </x:c>
       <x:c r="E53" t="n">
         <x:v>0</x:v>
@@ -6915,7 +6915,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC53" t="n">
-        <x:v>554</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD53" t="n">
         <x:v>0</x:v>
@@ -6962,13 +6962,13 @@
     </x:row>
     <x:row r="54">
       <x:c r="A54" t="str">
-        <x:v>京泰路街道</x:v>
+        <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B54" t="str">
-        <x:v>周桥村</x:v>
+        <x:v>东石羊村</x:v>
       </x:c>
       <x:c r="C54" t="str">
-        <x:v>周桥村村集体</x:v>
+        <x:v>村集体</x:v>
       </x:c>
       <x:c r="D54" t="n">
         <x:v>0</x:v>
@@ -7016,7 +7016,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S54" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="T54" t="n">
         <x:v>0</x:v>
@@ -7028,7 +7028,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W54" t="n">
-        <x:v>3400</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="X54" t="n">
         <x:v>0</x:v>
@@ -7043,13 +7043,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AB54" t="n">
-        <x:v>286</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AC54" t="n">
-        <x:v>44</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD54" t="n">
-        <x:v>2406</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AE54" t="n">
         <x:v>0</x:v>
@@ -7093,16 +7093,16 @@
     </x:row>
     <x:row r="55">
       <x:c r="A55" t="str">
-        <x:v>京泰路街道</x:v>
+        <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B55" t="str">
-        <x:v>周桥村</x:v>
+        <x:v>西石羊村</x:v>
       </x:c>
       <x:c r="C55" t="str">
-        <x:v>国有</x:v>
+        <x:v>二组</x:v>
       </x:c>
       <x:c r="D55" t="n">
-        <x:v>0</x:v>
+        <x:v>4536</x:v>
       </x:c>
       <x:c r="E55" t="n">
         <x:v>0</x:v>
@@ -7177,7 +7177,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC55" t="n">
-        <x:v>0</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="AD55" t="n">
         <x:v>0</x:v>
@@ -7192,7 +7192,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH55" t="n">
-        <x:v>0</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="AI55" t="n">
         <x:v>0</x:v>
@@ -7210,7 +7210,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AN55" t="n">
-        <x:v>2630</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AO55" t="n">
         <x:v>0</x:v>
@@ -7224,22 +7224,22 @@
     </x:row>
     <x:row r="56">
       <x:c r="A56" t="str">
-        <x:v>九龙镇</x:v>
+        <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B56" t="str">
-        <x:v>雨声村</x:v>
+        <x:v>西石羊村</x:v>
       </x:c>
       <x:c r="C56" t="str">
-        <x:v>村集体</x:v>
+        <x:v>三组</x:v>
       </x:c>
       <x:c r="D56" t="n">
-        <x:v>0</x:v>
+        <x:v>3170</x:v>
       </x:c>
       <x:c r="E56" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F56" t="n">
-        <x:v>696</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G56" t="n">
         <x:v>0</x:v>
@@ -7248,7 +7248,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I56" t="n">
-        <x:v>15081</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J56" t="n">
         <x:v>0</x:v>
@@ -7278,7 +7278,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S56" t="n">
-        <x:v>4760</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T56" t="n">
         <x:v>0</x:v>
@@ -7290,7 +7290,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W56" t="n">
-        <x:v>333</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X56" t="n">
         <x:v>0</x:v>
@@ -7299,16 +7299,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Z56" t="n">
-        <x:v>7514</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AA56" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="AB56" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AC56" t="n">
-        <x:v>1656</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD56" t="n">
         <x:v>0</x:v>
@@ -7320,7 +7320,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AG56" t="n">
-        <x:v>308</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AH56" t="n">
         <x:v>0</x:v>
@@ -7344,7 +7344,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO56" t="n">
-        <x:v>2791</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AP56" t="n">
         <x:v>0</x:v>
@@ -7355,16 +7355,16 @@
     </x:row>
     <x:row r="57">
       <x:c r="A57" t="str">
-        <x:v>九龙镇</x:v>
+        <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B57" t="str">
-        <x:v>雨声村</x:v>
+        <x:v>西石羊村</x:v>
       </x:c>
       <x:c r="C57" t="str">
-        <x:v>国有</x:v>
+        <x:v>五组</x:v>
       </x:c>
       <x:c r="D57" t="n">
-        <x:v>0</x:v>
+        <x:v>1116</x:v>
       </x:c>
       <x:c r="E57" t="n">
         <x:v>0</x:v>
@@ -7400,7 +7400,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P57" t="n">
-        <x:v>854</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q57" t="n">
         <x:v>0</x:v>
@@ -7421,7 +7421,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W57" t="n">
-        <x:v>1183</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X57" t="n">
         <x:v>0</x:v>
@@ -7442,7 +7442,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AD57" t="n">
-        <x:v>595</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AE57" t="n">
         <x:v>0</x:v>
@@ -7454,7 +7454,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH57" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="AI57" t="n">
         <x:v>0</x:v>
@@ -7486,16 +7486,16 @@
     </x:row>
     <x:row r="58">
       <x:c r="A58" t="str">
-        <x:v>罡杨镇</x:v>
+        <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B58" t="str">
-        <x:v>东楼村</x:v>
+        <x:v>西石羊村</x:v>
       </x:c>
       <x:c r="C58" t="str">
         <x:v>七组</x:v>
       </x:c>
       <x:c r="D58" t="n">
-        <x:v>277</x:v>
+        <x:v>3683</x:v>
       </x:c>
       <x:c r="E58" t="n">
         <x:v>0</x:v>
@@ -7540,7 +7540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S58" t="n">
-        <x:v>0</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="T58" t="n">
         <x:v>0</x:v>
@@ -7570,7 +7570,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC58" t="n">
-        <x:v>0</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="AD58" t="n">
         <x:v>0</x:v>
@@ -7585,7 +7585,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH58" t="n">
-        <x:v>0</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="AI58" t="n">
         <x:v>0</x:v>
@@ -7617,16 +7617,16 @@
     </x:row>
     <x:row r="59">
       <x:c r="A59" t="str">
-        <x:v>罡杨镇</x:v>
+        <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B59" t="str">
-        <x:v>东楼村</x:v>
+        <x:v>西石羊村</x:v>
       </x:c>
       <x:c r="C59" t="str">
         <x:v>八组</x:v>
       </x:c>
       <x:c r="D59" t="n">
-        <x:v>16984</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="E59" t="n">
         <x:v>0</x:v>
@@ -7701,7 +7701,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC59" t="n">
-        <x:v>583</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD59" t="n">
         <x:v>0</x:v>
@@ -7716,7 +7716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH59" t="n">
-        <x:v>115</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI59" t="n">
         <x:v>0</x:v>
@@ -7737,7 +7737,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AO59" t="n">
-        <x:v>464</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="AP59" t="n">
         <x:v>0</x:v>
@@ -7748,16 +7748,16 @@
     </x:row>
     <x:row r="60">
       <x:c r="A60" t="str">
-        <x:v>罡杨镇</x:v>
+        <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B60" t="str">
-        <x:v>东楼村</x:v>
+        <x:v>西石羊村</x:v>
       </x:c>
       <x:c r="C60" t="str">
-        <x:v>村集体</x:v>
+        <x:v>九组</x:v>
       </x:c>
       <x:c r="D60" t="n">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E60" t="n">
         <x:v>0</x:v>
@@ -7814,7 +7814,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W60" t="n">
-        <x:v>5015</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="X60" t="n">
         <x:v>0</x:v>
@@ -7835,7 +7835,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AD60" t="n">
-        <x:v>1509</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AE60" t="n">
         <x:v>0</x:v>
@@ -7882,13 +7882,13 @@
         <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B61" t="str">
-        <x:v>东石羊村</x:v>
+        <x:v>西石羊村</x:v>
       </x:c>
       <x:c r="C61" t="str">
-        <x:v>二组</x:v>
+        <x:v>十组</x:v>
       </x:c>
       <x:c r="D61" t="n">
-        <x:v>975</x:v>
+        <x:v>1744</x:v>
       </x:c>
       <x:c r="E61" t="n">
         <x:v>0</x:v>
@@ -8013,13 +8013,13 @@
         <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B62" t="str">
-        <x:v>东石羊村</x:v>
+        <x:v>西石羊村</x:v>
       </x:c>
       <x:c r="C62" t="str">
-        <x:v>三组</x:v>
+        <x:v>十一组</x:v>
       </x:c>
       <x:c r="D62" t="n">
-        <x:v>13992</x:v>
+        <x:v>3989</x:v>
       </x:c>
       <x:c r="E62" t="n">
         <x:v>0</x:v>
@@ -8064,7 +8064,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S62" t="n">
-        <x:v>140</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T62" t="n">
         <x:v>0</x:v>
@@ -8094,7 +8094,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC62" t="n">
-        <x:v>244</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AD62" t="n">
         <x:v>0</x:v>
@@ -8109,7 +8109,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH62" t="n">
-        <x:v>24</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI62" t="n">
         <x:v>0</x:v>
@@ -8144,13 +8144,13 @@
         <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B63" t="str">
-        <x:v>东石羊村</x:v>
+        <x:v>西石羊村</x:v>
       </x:c>
       <x:c r="C63" t="str">
-        <x:v>十一组</x:v>
+        <x:v>十四组</x:v>
       </x:c>
       <x:c r="D63" t="n">
-        <x:v>7987</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E63" t="n">
         <x:v>0</x:v>
@@ -8240,7 +8240,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH63" t="n">
-        <x:v>81</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AI63" t="n">
         <x:v>0</x:v>
@@ -8275,13 +8275,13 @@
         <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B64" t="str">
-        <x:v>东石羊村</x:v>
+        <x:v>西石羊村</x:v>
       </x:c>
       <x:c r="C64" t="str">
-        <x:v>十四组</x:v>
+        <x:v>十六组</x:v>
       </x:c>
       <x:c r="D64" t="n">
-        <x:v>7165</x:v>
+        <x:v>5479</x:v>
       </x:c>
       <x:c r="E64" t="n">
         <x:v>0</x:v>
@@ -8356,7 +8356,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC64" t="n">
-        <x:v>0</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="AD64" t="n">
         <x:v>0</x:v>
@@ -8371,7 +8371,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH64" t="n">
-        <x:v>80</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="AI64" t="n">
         <x:v>0</x:v>
@@ -8406,10 +8406,10 @@
         <x:v>苏陈镇</x:v>
       </x:c>
       <x:c r="B65" t="str">
-        <x:v>东石羊村</x:v>
+        <x:v>西石羊村</x:v>
       </x:c>
       <x:c r="C65" t="str">
-        <x:v>村集体</x:v>
+        <x:v>苏陈镇西石羊村村集体</x:v>
       </x:c>
       <x:c r="D65" t="n">
         <x:v>0</x:v>
@@ -8457,7 +8457,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S65" t="n">
-        <x:v>713</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="T65" t="n">
         <x:v>0</x:v>
@@ -8469,7 +8469,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W65" t="n">
-        <x:v>8314</x:v>
+        <x:v>10732</x:v>
       </x:c>
       <x:c r="X65" t="n">
         <x:v>0</x:v>
@@ -8487,7 +8487,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AC65" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="AD65" t="n">
         <x:v>0</x:v>
@@ -8502,7 +8502,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AH65" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="AI65" t="n">
         <x:v>0</x:v>
@@ -8529,1185 +8529,6 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AQ65" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66">
-      <x:c r="A66" t="str">
-        <x:v>苏陈镇</x:v>
-      </x:c>
-      <x:c r="B66" t="str">
-        <x:v>西石羊村</x:v>
-      </x:c>
-      <x:c r="C66" t="str">
-        <x:v>二组</x:v>
-      </x:c>
-      <x:c r="D66" t="n">
-        <x:v>4260</x:v>
-      </x:c>
-      <x:c r="E66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="X66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Y66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Z66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AA66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AB66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AC66" t="n">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="AD66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AE66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AF66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AG66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AJ66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AK66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AL66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AM66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AN66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AO66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AP66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AQ66" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67">
-      <x:c r="A67" t="str">
-        <x:v>苏陈镇</x:v>
-      </x:c>
-      <x:c r="B67" t="str">
-        <x:v>西石羊村</x:v>
-      </x:c>
-      <x:c r="C67" t="str">
-        <x:v>三组</x:v>
-      </x:c>
-      <x:c r="D67" t="n">
-        <x:v>2399</x:v>
-      </x:c>
-      <x:c r="E67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="X67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Y67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Z67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AA67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AB67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AC67" t="n">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="AD67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AE67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AF67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AG67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH67" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="AI67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AJ67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AK67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AL67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AM67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AN67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AO67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AP67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AQ67" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68">
-      <x:c r="A68" t="str">
-        <x:v>苏陈镇</x:v>
-      </x:c>
-      <x:c r="B68" t="str">
-        <x:v>西石羊村</x:v>
-      </x:c>
-      <x:c r="C68" t="str">
-        <x:v>五组</x:v>
-      </x:c>
-      <x:c r="D68" t="n">
-        <x:v>1935</x:v>
-      </x:c>
-      <x:c r="E68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="X68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Y68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Z68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AA68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AB68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AC68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AE68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AF68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AG68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AJ68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AK68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AL68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AM68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AN68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AO68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AP68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AQ68" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69">
-      <x:c r="A69" t="str">
-        <x:v>苏陈镇</x:v>
-      </x:c>
-      <x:c r="B69" t="str">
-        <x:v>西石羊村</x:v>
-      </x:c>
-      <x:c r="C69" t="str">
-        <x:v>七组</x:v>
-      </x:c>
-      <x:c r="D69" t="n">
-        <x:v>15784</x:v>
-      </x:c>
-      <x:c r="E69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S69" t="n">
-        <x:v>887</x:v>
-      </x:c>
-      <x:c r="T69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="X69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Y69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Z69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AA69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AB69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AC69" t="n">
-        <x:v>705</x:v>
-      </x:c>
-      <x:c r="AD69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AE69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AF69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AG69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH69" t="n">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="AI69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AJ69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AK69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AL69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AM69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AN69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AO69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AP69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AQ69" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70">
-      <x:c r="A70" t="str">
-        <x:v>苏陈镇</x:v>
-      </x:c>
-      <x:c r="B70" t="str">
-        <x:v>西石羊村</x:v>
-      </x:c>
-      <x:c r="C70" t="str">
-        <x:v>八组</x:v>
-      </x:c>
-      <x:c r="D70" t="n">
-        <x:v>6118</x:v>
-      </x:c>
-      <x:c r="E70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="X70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Y70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Z70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AA70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AB70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AC70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AE70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AF70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AG70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AJ70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AK70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AL70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AM70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AN70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AO70" t="n">
-        <x:v>5237</x:v>
-      </x:c>
-      <x:c r="AP70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AQ70" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71">
-      <x:c r="A71" t="str">
-        <x:v>苏陈镇</x:v>
-      </x:c>
-      <x:c r="B71" t="str">
-        <x:v>西石羊村</x:v>
-      </x:c>
-      <x:c r="C71" t="str">
-        <x:v>十组</x:v>
-      </x:c>
-      <x:c r="D71" t="n">
-        <x:v>10272</x:v>
-      </x:c>
-      <x:c r="E71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="X71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Y71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Z71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AA71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AB71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AC71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AE71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AF71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AG71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AJ71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AK71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AL71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AM71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AN71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AO71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AP71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AQ71" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72">
-      <x:c r="A72" t="str">
-        <x:v>苏陈镇</x:v>
-      </x:c>
-      <x:c r="B72" t="str">
-        <x:v>西石羊村</x:v>
-      </x:c>
-      <x:c r="C72" t="str">
-        <x:v>十一组</x:v>
-      </x:c>
-      <x:c r="D72" t="n">
-        <x:v>14911</x:v>
-      </x:c>
-      <x:c r="E72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="X72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Y72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Z72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AA72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AB72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AC72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AE72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AF72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AG72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AJ72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AK72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AL72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AM72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AN72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AO72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AP72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AQ72" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73">
-      <x:c r="A73" t="str">
-        <x:v>苏陈镇</x:v>
-      </x:c>
-      <x:c r="B73" t="str">
-        <x:v>西石羊村</x:v>
-      </x:c>
-      <x:c r="C73" t="str">
-        <x:v>十四组</x:v>
-      </x:c>
-      <x:c r="D73" t="n">
-        <x:v>1500</x:v>
-      </x:c>
-      <x:c r="E73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="X73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Y73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Z73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AA73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AB73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AC73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AE73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AF73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AG73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AJ73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AK73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AL73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AM73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AN73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AO73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AP73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AQ73" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74">
-      <x:c r="A74" t="str">
-        <x:v>苏陈镇</x:v>
-      </x:c>
-      <x:c r="B74" t="str">
-        <x:v>西石羊村</x:v>
-      </x:c>
-      <x:c r="C74" t="str">
-        <x:v>苏陈镇西石羊村村集体</x:v>
-      </x:c>
-      <x:c r="D74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S74" t="n">
-        <x:v>652</x:v>
-      </x:c>
-      <x:c r="T74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="V74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W74" t="n">
-        <x:v>11524</x:v>
-      </x:c>
-      <x:c r="X74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Y74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Z74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AA74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AB74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AC74" t="n">
-        <x:v>581</x:v>
-      </x:c>
-      <x:c r="AD74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AE74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AF74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AG74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH74" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="AI74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AJ74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AK74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AL74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AM74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AN74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AO74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AP74" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AQ74" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
